--- a/output.xlsx
+++ b/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Termo de Busca</t>
   </si>
@@ -24,6 +24,180 @@
   </si>
   <si>
     <t>Descrição</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon.com: The Official Pokémon Website</t>
+  </si>
+  <si>
+    <t>https://www.pokemon.com/us</t>
+  </si>
+  <si>
+    <t>Featured Pokémon · 124. Jynx 124. Type: Ice Psychic; Abilities · 861. Grimmsnarl 861. Type: Dark Fairy; Abilities · 325. Spoink 325. Type: Psychic; Abilities ...</t>
+  </si>
+  <si>
+    <t>Pokémon</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Pok%C3%A9mon</t>
+  </si>
+  <si>
+    <t>Pokémon is a Japanese media franchise consisting of video games, animated series and films, a trading card game, and other related media.</t>
+  </si>
+  <si>
+    <t>Pokémon GO</t>
+  </si>
+  <si>
+    <t>https://pokemongolive.com/</t>
+  </si>
+  <si>
+    <t>Join Trainers around the world and play Pokémon GO together in new and exciting ways. Overcome challenges, catch more Pokémon, and forge friendships through ...</t>
+  </si>
+  <si>
+    <t>The Official Pokémon YouTube channel</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCFctpiB_Hnlk3ejWfHqSm6Q</t>
+  </si>
+  <si>
+    <t>Watch Pokémon Video Game, Trading Card Game, and Animation content, along with special features, and event highlights right here on the official Pokémon ...</t>
+  </si>
+  <si>
+    <t>Pokédex</t>
+  </si>
+  <si>
+    <t>https://www.pokemon.com/us/pokedex</t>
+  </si>
+  <si>
+    <t>Search for a Pokémon by name or using its National Pokédex number. · Type: All · Weakness: All · Ability: All · Height: All · Weight: All · Number Range: All ...</t>
+  </si>
+  <si>
+    <t>Minecraft</t>
+  </si>
+  <si>
+    <t>Welcome to the Minecraft Official Site | Minecraft</t>
+  </si>
+  <si>
+    <t>https://www.minecraft.net/</t>
+  </si>
+  <si>
+    <t>Explore new gaming adventures, accessories, &amp; merchandise on the Minecraft Official Site. Buy &amp; download the game here, or check the site for the latest ...</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft is a 2011 sandbox game developed and published by Swedish video game developer Mojang Studios. Originally created by Markus "Notch" Persson using ...</t>
+  </si>
+  <si>
+    <t>Minecraft: Play with Friends - Apps on Google Play</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.mojang.minecraftpe&amp;hl=en</t>
+  </si>
+  <si>
+    <t>26 de set. de 2024 —</t>
+  </si>
+  <si>
+    <t>r/Minecraft</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/Minecraft/</t>
+  </si>
+  <si>
+    <t>r/Minecraft: Minecraft community on Reddit.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/minecraft</t>
+  </si>
+  <si>
+    <t>Our monthly news show around all things Minecraft! Get the latest news about all our games from Mojang Studios!</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>League of Legends Homepage</t>
+  </si>
+  <si>
+    <t>https://www.leagueoflegends.com/</t>
+  </si>
+  <si>
+    <t>League of Legends is a team-based game with over 140 champions to make epic plays with. Play now for free.</t>
+  </si>
+  <si>
+    <t>LoL Esports | SCHEDULE</t>
+  </si>
+  <si>
+    <t>https://lolesports.com/</t>
+  </si>
+  <si>
+    <t>The best place to watch LoL Esports and earn rewards!</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/League_of_Legends</t>
+  </si>
+  <si>
+    <t>League of Legends (LoL), commonly referred to as League, is a 2009 multiplayer online battle arena video game developed and published by Riot Games.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC2t5bjwHdUX4vM2g8TRDq5g</t>
+  </si>
+  <si>
+    <t>the most played video game in the world—100 million play every month—League of Legends® is a multiplayer online battle arena game (MOBA).</t>
+  </si>
+  <si>
+    <t>Riot Games. Developer of League of Legends, VALORANT ...</t>
+  </si>
+  <si>
+    <t>https://www.riotgames.com/</t>
+  </si>
+  <si>
+    <t>Riot Games. Developer of League of Legends, VALORANT, Teamfight Tactics, Legends of Runeterra, and Wild Rift. Creators of Arcane. Home of LOL and VALORANT ...</t>
+  </si>
+  <si>
+    <t>Wild Rift</t>
+  </si>
+  <si>
+    <t>Wild Rift: Welcome to League of Legends</t>
+  </si>
+  <si>
+    <t>https://wildrift.leagueoflegends.com/</t>
+  </si>
+  <si>
+    <t>League of Legends: Wild Rift - Team up with friends and test your skills in 5v5 mobile MOBA combat.</t>
+  </si>
+  <si>
+    <t>League of Legends: Wild Rift</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.riotgames.league.wildrift&amp;hl=en_IE</t>
+  </si>
+  <si>
+    <t>24 de jul. de 2024 —</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/wildrift</t>
+  </si>
+  <si>
+    <t>Dive into League of Legends: Wild Rift: the skills-and-strategy 5v5 MOBA experience of League of Legends by Riot Games, now built from the ground up for ...</t>
+  </si>
+  <si>
+    <t>WildRiftFire: Wild Rift Builds &amp; Guides</t>
+  </si>
+  <si>
+    <t>https://www.wildriftfire.com/</t>
+  </si>
+  <si>
+    <t>Find the best build guide for Wild Rift on WildRiftFire. Learn which items, runes, and summoner spells to take on each champion in Wild Rift, as well as how ...</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/League_of_Legends:_Wild_Rift</t>
+  </si>
+  <si>
+    <t>League of Legends: Wild Rift (abbreviated League: WR or simply Wild Rift) is a multiplayer online battle arena mobile game developed and published by Riot ...</t>
   </si>
 </sst>
 </file>
@@ -70,7 +244,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -90,6 +264,286 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Termo de Busca</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://www.pokemon.com/us</t>
   </si>
   <si>
-    <t>Featured Pokémon · 124. Jynx 124. Type: Ice Psychic; Abilities · 861. Grimmsnarl 861. Type: Dark Fairy; Abilities · 325. Spoink 325. Type: Psychic; Abilities ...</t>
+    <t>Featured Pokémon · Amaura 698 · Jirachi 385 · Komala 775 · Delcatty 301 · Dreepy 885 · Mr. Mime 122 · Nosepass 299 · Sylveon 700.</t>
   </si>
   <si>
     <t>Pokémon</t>
@@ -53,7 +53,7 @@
     <t>https://pokemongolive.com/</t>
   </si>
   <si>
-    <t>Join Trainers around the world and play Pokémon GO together in new and exciting ways. Overcome challenges, catch more Pokémon, and forge friendships through ...</t>
+    <t>Spin Photo Discs at PokéStops and Gyms to receive items that will help you on your Pokémon GO journey, including Poké Balls, Berries, Evolution items, and more.</t>
   </si>
   <si>
     <t>The Official Pokémon YouTube channel</t>
@@ -71,7 +71,7 @@
     <t>https://www.pokemon.com/us/pokedex</t>
   </si>
   <si>
-    <t>Search for a Pokémon by name or using its National Pokédex number. · Type: All · Weakness: All · Ability: All · Height: All · Weight: All · Number Range: All ...</t>
+    <t>Use the Advanced Search to explore Pokémon by type, weakness, Ability, and more! Search for a Pokémon by name or using its National Pokédex number.</t>
   </si>
   <si>
     <t>Minecraft</t>
@@ -92,13 +92,10 @@
     <t>Minecraft is a 2011 sandbox game developed and published by Swedish video game developer Mojang Studios. Originally created by Markus "Notch" Persson using ...</t>
   </si>
   <si>
-    <t>Minecraft: Play with Friends - Apps on Google Play</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.mojang.minecraftpe&amp;hl=en</t>
-  </si>
-  <si>
-    <t>26 de set. de 2024 —</t>
+    <t>https://www.youtube.com/minecraft</t>
+  </si>
+  <si>
+    <t>Our monthly news show around all things Minecraft! Get the latest news about all our games from Mojang Studios!</t>
   </si>
   <si>
     <t>r/Minecraft</t>
@@ -110,12 +107,6 @@
     <t>r/Minecraft: Minecraft community on Reddit.</t>
   </si>
   <si>
-    <t>https://www.youtube.com/minecraft</t>
-  </si>
-  <si>
-    <t>Our monthly news show around all things Minecraft! Get the latest news about all our games from Mojang Studios!</t>
-  </si>
-  <si>
     <t>League of Legends</t>
   </si>
   <si>
@@ -161,15 +152,6 @@
     <t>Wild Rift</t>
   </si>
   <si>
-    <t>Wild Rift: Welcome to League of Legends</t>
-  </si>
-  <si>
-    <t>https://wildrift.leagueoflegends.com/</t>
-  </si>
-  <si>
-    <t>League of Legends: Wild Rift - Team up with friends and test your skills in 5v5 mobile MOBA combat.</t>
-  </si>
-  <si>
     <t>League of Legends: Wild Rift</t>
   </si>
   <si>
@@ -183,15 +165,6 @@
   </si>
   <si>
     <t>Dive into League of Legends: Wild Rift: the skills-and-strategy 5v5 MOBA experience of League of Legends by Riot Games, now built from the ground up for ...</t>
-  </si>
-  <si>
-    <t>WildRiftFire: Wild Rift Builds &amp; Guides</t>
-  </si>
-  <si>
-    <t>https://www.wildriftfire.com/</t>
-  </si>
-  <si>
-    <t>Find the best build guide for Wild Rift on WildRiftFire. Learn which items, runes, and summoner spells to take on each champion in Wild Rift, as well as how ...</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/League_of_Legends:_Wild_Rift</t>
@@ -244,7 +217,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -367,13 +340,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -381,32 +354,32 @@
         <v>20</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>35</v>
@@ -420,38 +393,38 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>43</v>
@@ -462,86 +435,44 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="D17" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Termo de Busca</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://www.pokemon.com/us</t>
   </si>
   <si>
-    <t>Featured Pokémon · Amaura 698 · Jirachi 385 · Komala 775 · Delcatty 301 · Dreepy 885 · Mr. Mime 122 · Nosepass 299 · Sylveon 700.</t>
+    <t>Featured Pokémon · Lokix 920 · Boltund 836 · Archaludon 1018 · Porygon2 233 · Pignite 499 · Darumaka 554 · Hatenna 856 · Vivillon 666.</t>
   </si>
   <si>
     <t>Pokémon</t>
@@ -65,13 +65,13 @@
     <t>Watch Pokémon Video Game, Trading Card Game, and Animation content, along with special features, and event highlights right here on the official Pokémon ...</t>
   </si>
   <si>
-    <t>Pokédex</t>
-  </si>
-  <si>
-    <t>https://www.pokemon.com/us/pokedex</t>
-  </si>
-  <si>
-    <t>Use the Advanced Search to explore Pokémon by type, weakness, Ability, and more! Search for a Pokémon by name or using its National Pokédex number.</t>
+    <t>Pokémon - Toys, Games &amp; Trading Cards</t>
+  </si>
+  <si>
+    <t>https://www.smythstoys.com/ie/en-ie/brand/pokemon/c/pokemon-brand</t>
+  </si>
+  <si>
+    <t>Buy Pokémon toys, games and trading cards at Smyths Toys Ireland! FREE DELIVERY over €25 ✔️ Click &amp; Collect available.</t>
   </si>
   <si>
     <t>Minecraft</t>
@@ -92,21 +92,30 @@
     <t>Minecraft is a 2011 sandbox game developed and published by Swedish video game developer Mojang Studios. Originally created by Markus "Notch" Persson using ...</t>
   </si>
   <si>
+    <t>Minecraft: Play with Friends - Apps on Google Play</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.mojang.minecraftpe&amp;hl=en_US</t>
+  </si>
+  <si>
+    <t>há 3 dias —</t>
+  </si>
+  <si>
+    <t>r/Minecraft</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/Minecraft/</t>
+  </si>
+  <si>
+    <t>r/Minecraft: Minecraft community on Reddit.</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/minecraft</t>
   </si>
   <si>
     <t>Our monthly news show around all things Minecraft! Get the latest news about all our games from Mojang Studios!</t>
   </si>
   <si>
-    <t>r/Minecraft</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/Minecraft/</t>
-  </si>
-  <si>
-    <t>r/Minecraft: Minecraft community on Reddit.</t>
-  </si>
-  <si>
     <t>League of Legends</t>
   </si>
   <si>
@@ -119,6 +128,12 @@
     <t>League of Legends is a team-based game with over 140 champions to make epic plays with. Play now for free.</t>
   </si>
   <si>
+    <t>https://en.wikipedia.org/wiki/League_of_Legends</t>
+  </si>
+  <si>
+    <t>League of Legends (LoL), commonly referred to as League, is a 2009 multiplayer online battle arena video game developed and published by Riot Games.</t>
+  </si>
+  <si>
     <t>LoL Esports | SCHEDULE</t>
   </si>
   <si>
@@ -128,12 +143,6 @@
     <t>The best place to watch LoL Esports and earn rewards!</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/League_of_Legends</t>
-  </si>
-  <si>
-    <t>League of Legends (LoL), commonly referred to as League, is a 2009 multiplayer online battle arena video game developed and published by Riot Games.</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/channel/UC2t5bjwHdUX4vM2g8TRDq5g</t>
   </si>
   <si>
@@ -152,13 +161,34 @@
     <t>Wild Rift</t>
   </si>
   <si>
+    <t>Wild Rift: Welcome to League of Legends</t>
+  </si>
+  <si>
+    <t>https://wildrift.leagueoflegends.com/</t>
+  </si>
+  <si>
+    <t>League of Legends: Wild Rift - Team up with friends and test your skills in 5v5 mobile MOBA combat.</t>
+  </si>
+  <si>
+    <t>League of Legends: Wild Rift - Apps on Google Play</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.riotgames.league.wildrift</t>
+  </si>
+  <si>
+    <t>24 de jul. de 2024 —</t>
+  </si>
+  <si>
+    <t>WildRiftFire: Wild Rift Builds &amp; Guides</t>
+  </si>
+  <si>
+    <t>https://www.wildriftfire.com/</t>
+  </si>
+  <si>
+    <t>Find the best build guide for Wild Rift on WildRiftFire. Learn which items, runes, and summoner spells to take on each champion in Wild Rift, as well as how ...</t>
+  </si>
+  <si>
     <t>League of Legends: Wild Rift</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.riotgames.league.wildrift&amp;hl=en_IE</t>
-  </si>
-  <si>
-    <t>24 de jul. de 2024 —</t>
   </si>
   <si>
     <t>https://www.youtube.com/c/wildrift</t>
@@ -217,7 +247,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -340,13 +370,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -354,32 +384,32 @@
         <v>20</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="D11" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>35</v>
@@ -393,10 +423,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>38</v>
@@ -407,24 +437,24 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>43</v>
@@ -435,44 +465,86 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="D16" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Termo de Busca</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://www.pokemon.com/us</t>
   </si>
   <si>
-    <t>Featured Pokémon · Lokix 920 · Boltund 836 · Archaludon 1018 · Porygon2 233 · Pignite 499 · Darumaka 554 · Hatenna 856 · Vivillon 666.</t>
+    <t>What's New This Week · Dragon-Type Pokémon Soar over Pokéween · Scarlet &amp; Violet—Stellar Crown Triple Play Deck Strategy · Live, Laugh, Scare with Pokémon ...</t>
   </si>
   <si>
     <t>Pokémon</t>
@@ -65,13 +65,13 @@
     <t>Watch Pokémon Video Game, Trading Card Game, and Animation content, along with special features, and event highlights right here on the official Pokémon ...</t>
   </si>
   <si>
-    <t>Pokémon - Toys, Games &amp; Trading Cards</t>
-  </si>
-  <si>
-    <t>https://www.smythstoys.com/ie/en-ie/brand/pokemon/c/pokemon-brand</t>
-  </si>
-  <si>
-    <t>Buy Pokémon toys, games and trading cards at Smyths Toys Ireland! FREE DELIVERY over €25 ✔️ Click &amp; Collect available.</t>
+    <t>Pokemon - Pokémon</t>
+  </si>
+  <si>
+    <t>https://twitter.com/pokemon</t>
+  </si>
+  <si>
+    <t>Infernape with the Mightiest Mark is now appearing in black crystal Tera Raid Battles throughout #PokemonScarletViolet! Work together with friends to topple ...</t>
   </si>
   <si>
     <t>Minecraft</t>
@@ -98,7 +98,16 @@
     <t>https://play.google.com/store/apps/details?id=com.mojang.minecraftpe&amp;hl=en_US</t>
   </si>
   <si>
-    <t>há 3 dias —</t>
+    <t>— Explore and craft your way through a completely open world where you can play with friends, build a city, start a farm, mine deep into the ...</t>
+  </si>
+  <si>
+    <t>Minecraft - PS4 Games</t>
+  </si>
+  <si>
+    <t>https://www.playstation.com/en-ie/games/minecraft/</t>
+  </si>
+  <si>
+    <t>Team up or go solo and triumph over waves of hostile mobs, build with new blocks, harness auto-crafting, battle the breeze, unlock the vault, and more.</t>
   </si>
   <si>
     <t>r/Minecraft</t>
@@ -110,10 +119,52 @@
     <t>r/Minecraft: Minecraft community on Reddit.</t>
   </si>
   <si>
-    <t>https://www.youtube.com/minecraft</t>
-  </si>
-  <si>
-    <t>Our monthly news show around all things Minecraft! Get the latest news about all our games from Mojang Studios!</t>
+    <t>Burguer</t>
+  </si>
+  <si>
+    <t>Burger King</t>
+  </si>
+  <si>
+    <t>https://www.burgerking.pt/pt/</t>
+  </si>
+  <si>
+    <t>Nearby restaurant! Free delivery. Free Delivery. In orders up to 20€. Order now!</t>
+  </si>
+  <si>
+    <t>Burger King®</t>
+  </si>
+  <si>
+    <t>https://www.burgerking.com.br/</t>
+  </si>
+  <si>
+    <t>Baixe nosso App e tenha o BK na palma da sua mão! · Centro de preferências de privacidade.</t>
+  </si>
+  <si>
+    <t>Home - Burger KingBurger King | HUNGRY? WE GOT YOU</t>
+  </si>
+  <si>
+    <t>https://www.whopper.ie/</t>
+  </si>
+  <si>
+    <t>Gourmet Kings · Veggie &amp; Plant-based Kings · Texas Bacon Lovers · Sweet Treats.</t>
+  </si>
+  <si>
+    <t>Bilbo Burguer ®️ (@bilboburguer)</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/bilboburguer/</t>
+  </si>
+  <si>
+    <t>CUPOM PRIMEIRA COMPRA: PRIMEIRAVEZ 🎟️ R. José Moreira, Itinga em Lauro de Freitas Pedindo no site chega mais rápido ⇊ Link para pedidos abaixo.</t>
+  </si>
+  <si>
+    <t>'O' Burguer</t>
+  </si>
+  <si>
+    <t>http://www.oburguer.com.br/</t>
+  </si>
+  <si>
+    <t>'O' Burguer é muito mais do que uma simples hamburgueria. Inspirada pela ciência e pela criatividade gastronômica, cada um de nossos produtos é uma experiência ...</t>
   </si>
   <si>
     <t>League of Legends</t>
@@ -176,7 +227,16 @@
     <t>https://play.google.com/store/apps/details?id=com.riotgames.league.wildrift</t>
   </si>
   <si>
-    <t>24 de jul. de 2024 —</t>
+    <t>— Enjoy fast-paced MOBA combat, real-time strategy, smooth controls, and diverse 5v5 gameplay. Team up with friends, lock in your champion, and ...</t>
+  </si>
+  <si>
+    <t>League of Legends: Wild Rift</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/wildrift</t>
+  </si>
+  <si>
+    <t>Dive into League of Legends: Wild Rift: the skills-and-strategy 5v5 MOBA experience of League of Legends by Riot Games, now built from the ground up for ...</t>
   </si>
   <si>
     <t>WildRiftFire: Wild Rift Builds &amp; Guides</t>
@@ -188,19 +248,13 @@
     <t>Find the best build guide for Wild Rift on WildRiftFire. Learn which items, runes, and summoner spells to take on each champion in Wild Rift, as well as how ...</t>
   </si>
   <si>
-    <t>League of Legends: Wild Rift</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/c/wildrift</t>
-  </si>
-  <si>
-    <t>Dive into League of Legends: Wild Rift: the skills-and-strategy 5v5 MOBA experience of League of Legends by Riot Games, now built from the ground up for ...</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/League_of_Legends:_Wild_Rift</t>
-  </si>
-  <si>
-    <t>League of Legends: Wild Rift (abbreviated League: WR or simply Wild Rift) is a multiplayer online battle arena mobile game developed and published by Riot ...</t>
+    <t>League of Legends: Wild Rift (@wildrift) ...</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wildrift</t>
+  </si>
+  <si>
+    <t>Official account of League of Legends: Wild Rift, your favorite mobile MOBA from @riotgames.</t>
   </si>
 </sst>
 </file>
@@ -247,7 +301,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -398,153 +452,223 @@
         <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
